--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3829737.927067804</v>
+        <v>3827485.847356597</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>110.7929204252946</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>143.0659977617366</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>163.472338733543</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.2844644863986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846239</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>255.4119927757083</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>166.9985346322011</v>
+        <v>9.595802811127321</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>96.79481468711501</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>71.68269007697916</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>34.06154793295946</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656051</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>87.73390848162707</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599464</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>159.4257716218685</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>180.6670586121394</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.1193700387787</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>107.1685137621111</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.26758323426815</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>125.285163539206</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.8435308896558</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>135.5795121770518</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>125.2851635392057</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>25.52471385612597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>275.6685478670739</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>53.30076123484789</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>809.8584150459947</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>527.322087337517</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>527.322087337517</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>527.322087337517</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.157560278958</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>969.7403902419976</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>741.7508393439803</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>527.322087337517</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1901.535346136983</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C5" t="n">
-        <v>1532.572829196571</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1174.307130589821</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>788.5188779915766</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>377.532973201969</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>366.5009270873696</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2678.274518176916</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>2288.135186201105</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.2351809199101</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.594608541189</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335302</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>903.2247318179275</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>675.2351809199101</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.2351809199101</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968308</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278964</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211459</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E8" t="n">
-        <v>510.8106564211459</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="F8" t="n">
-        <v>503.8651556719424</v>
+        <v>191.9478189608284</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>180.915772846229</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.821308835076</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1157.415704862389</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>936.6231257188592</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5024,64 +5024,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273905</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493493</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.79546553984</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.0028863963103</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1883.470651306724</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1628.786163100837</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1339.368993063876</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654475</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3050.708758511721</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>2881.772575583814</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>2881.772575583814</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>2733.859482001421</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>2586.969534503511</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3749.763944276939</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3460.346774239978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3232.357223341961</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3232.357223341961</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,37 +5765,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2271.666355830531</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2052.064890853472</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1762.98966419767</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,22 +6066,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622266</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343197</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219839</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395908</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>302.4540366416804</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>302.4540366416804</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934014</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,22 +6710,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>377.6556127449245</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,22 +7175,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768874</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>266.4891497944943</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>119.599202296584</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>473.9330993947872</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>323.8164599824514</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>175.9033664000583</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2326.07822707019</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>198.4505659076171</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290907</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>126.7587027673756</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>71.47058471168859</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>73.85777223953347</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>164.3170701178266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>15.00954930701791</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.74112246243902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>10.85445046951736</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.74112246243892</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>127.7255247667967</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>638347.4380250133</v>
+        <v>638347.4380250132</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250132</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176757</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176762</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.934697756</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977554</v>
+        <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977555</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319411</v>
+        <v>92793.842883194</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184287</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184285</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184271</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="L4" t="n">
-        <v>13606.80811184269</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184276</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728956.8035545042</v>
+        <v>-728956.8035545039</v>
       </c>
       <c r="C6" t="n">
-        <v>599787.9421730892</v>
+        <v>599787.9421730884</v>
       </c>
       <c r="D6" t="n">
-        <v>599787.9421730879</v>
+        <v>599787.9421730889</v>
       </c>
       <c r="E6" t="n">
-        <v>346826.1349546505</v>
+        <v>346791.3970292154</v>
       </c>
       <c r="F6" t="n">
-        <v>672238.5967620059</v>
+        <v>672203.8588365702</v>
       </c>
       <c r="G6" t="n">
-        <v>672238.5967620059</v>
+        <v>672203.8588365704</v>
       </c>
       <c r="H6" t="n">
-        <v>672238.5967620062</v>
+        <v>672203.8588365701</v>
       </c>
       <c r="I6" t="n">
-        <v>672238.5967620059</v>
+        <v>672203.8588365701</v>
       </c>
       <c r="J6" t="n">
-        <v>454707.394364728</v>
+        <v>454672.6564392929</v>
       </c>
       <c r="K6" t="n">
-        <v>672238.5967620059</v>
+        <v>672203.8588365702</v>
       </c>
       <c r="L6" t="n">
-        <v>672238.5967620062</v>
+        <v>672203.8588365704</v>
       </c>
       <c r="M6" t="n">
-        <v>587183.5688264942</v>
+        <v>587148.830901059</v>
       </c>
       <c r="N6" t="n">
-        <v>672238.5967620058</v>
+        <v>672203.8588365701</v>
       </c>
       <c r="O6" t="n">
-        <v>672238.5967620061</v>
+        <v>672203.8588365706</v>
       </c>
       <c r="P6" t="n">
-        <v>672238.5967620062</v>
+        <v>672203.8588365703</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,25 +26963,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>254.4799713457129</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>226.6651029167324</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>62.23731665549411</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.300188865696185</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825452</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.19577161161226</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>119.5244637043899</v>
+        <v>276.9271955254637</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>314.1269109663384</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>222.9250743103413</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>191.6481074560777</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.604658557802081e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550405</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796314</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>441.029269365552</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>744.5154887882966</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,25 +32786,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>369.1789913099994</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>320.9147064709962</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>316.6133175811567</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>230.9747494877451</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>512.9101366533182</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>316.6133175811573</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717073</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629807</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>302.4748895856778</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>602.3814548662782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36434,25 +36434,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>77.54037261451921</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>226.582746865555</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>189.5729943876629</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>174.4792836591383</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>97.00034207341486</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>370.3138922088737</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>174.479283659139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
